--- a/Testdata/TC_49.xlsx
+++ b/Testdata/TC_49.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>FB0AAB+LCAAAAAAAAAOlWVlvI8cR/isDPiVAyBlS0upAawxekomQokBS0covQXOmJU62Z4aZ7pHENwew4cBxEATBOnBO5MlBgGwWiQ04uzn+i7HSbp7yF1J9zEVSXo2yEFbTVV9VV1dXV1W30DvXPjUuScS8MNiv1GtWxSCBE7pecLFfifl5tf6o8o6NutcOocc4wj7hADZAKmB718zbr8w4n++Z5tXVVe1qoxZGF2bDsurm40F/7MyIj6tewDgOHFJJpdy3S1Vs1Hb9AeHYxRwryf1Kb9yrtYnndIA2wAG+IFGtFTMvIIx1A+5xjzAhGRHMSbsz+J5amN2oParVkblCz5Ct2KOuwhWQiq5xMC2ZeD6xG1Z9p2rtVDfqE2t3b3N7r7FZ29q23ksEUyDqY8bHJLr0HEkYc+zPpbi1s1G3dje3G5vIXAsCXZkDbDSk7ohceoy4bUIpK+URU29g0+Gw6nLOtJCZk9WKHm7CYYTns4nHKSlnxmjQMvxA25IpsdFBGBEH/Pcgk47I1TDSbp3M+8CdzLyILzp4UVrXCSPRcC6cVE7URp0w4E1KIn4yh70mLoQCMGwexQSZdzAzoY7HHPj2gpi49jmmLC9UYKLTMHrC5tghR3COTaHjKqAhdiHguMe452STrjDQcRTOQSNM3gqpewBaNXgNI9XcC8DFYtpWGD7JrFvHRHJX5f7CnvqYJ/AVOhrPwqthQBfjeMqcyJsSt9NK0Gt5SBxILd2OGQ99sCIjIUXLUQaD6gL+wRlc5qAOcTwf02MKfmT2BigqEFAz5uG5x9shjf2AJWYtUdEpLGpCrtNFpmM0hP0NhN/DoBckeOXptayiwCi8SudcZUg/5MhN5iQ7vspYBneAluzgKkduiljlgUehROS3I0ctBsZ4RghfGxWKg0Q2PBBFx25SisxsiCAyIbrBDNuCulGVPxPL2pM/MG3KRt3AvRuXMNFR7A+ncIIv5YLsOvCWSAiWQFsUB0+Aeurx2VEzMX0NB6kF34lf5SE4q3OKF5KcOiVPQ73AobFLVAroBecyIoVtag/vZKMVUh9OtY1wsJgs5pCJmbfH4WO/ArV5j/EIqn/FdsI44NFC5ApkaujbZFg8DeQEmN5b5jwiP4yh6VgcxIHTDt37z+Yq75wEHr+/hWEcqQR4fxHpPZELY9YhIqvINH9veafMmlhUCu4HxA8Dz7m/t8HJwnr3AQthyam6twRR5+veeAqVXBU6cdbvLRZBxwilrdQ0TcZCx5PBqo+Hm5M37zgyHXKOYwrdGoeiepGm2mUyarIny5g8CZ1ENEl4tuiFGTTDjuvXHGgXRMNXc0JfEEzoQU/HyMzjRc/jkG5w0cfBRQxdRZpXlulpuhUVcRLhgInlpE3EUuZdD0JJnlLNjb2a7JC5BEET4s/DCNMB+MQ70BGnmyPoOwaYz/QIqhglTuJfMxNNpYpGJTa/DSbLkVqBOOs6Qy4RJUjEp+q4M0xGQ2KJAziRtI2pN41UQk2K9joe7FXWCSapVyyuZFeYuB9uXVBnv0sWohXPBpouo7WeMFTsihxqj0ebO40ta6MBPYwYI7niEcHU6MI55sToBZeEcR/E9owRYZ4LXx6me8a7ZEo8qH/SRboClZbOy6GDJMVLU5pgb5FSBEBnceFBBVkFppxMwD4jOKKLHFAttR86gLv98b9vfvP81YvPbz9++ubLD/77j1+9+ufPbp59CB+3f/3bzSe/VMtUYDTBU0qkQZPWzo61AVezjISEc03ZB7uxwyXt7Ey2v+kY6VucHLS7vfZhvyVTSUpMxFU1McUFcRHG2XCsFiEnkltqJpGgIPYkSU16XODmqpMtLmyXpIjO8+8SVL54/fLz1y//fKe0dljWZtV3d7eq9cZbuzC4+tZXcGkX1i+kfwHerFpb1UYjB17CoJHK/amfeq4tbtZWY8Oqp2ncTQN5HWiZpTVN8IW5JKdIbdUZpSGQHydMGfgTOCIpWx2F3ECH6Jc/efOXpwWU9q6mFLWAcbKDEZOZyUCqPhpNjPHwZNTuGpPuWMRJxsvhlPJvAOvZ0/NUCKogiDH9jgF1HeqYUYG7T8UIzw2CnZmxgJOYO4eFYFtHVRM9UOWylYdRGM/VjuQEMuoaZJpN1kqsyTWSJ/25knQy1hq4svXm71+sE9AL6WS9bPrYkaehAkeRcnx9aj/716uvPnr14sXt85/ffPWjggY9T/oGAHEOpyk/TMMeUp6uN0sUdDqWznxifT9XXzRR3KGOQy/gzK4/ktcnPUIgWhfa5G/U86HkScXSX0BfoqB3Metec32w7SNkFglg5xxDtQ2zW2ZKUDk88+t/fvu7219/cfvp8zcf/enm4z/efPLp65e/f/PsD+rU3T59fvvTZzrLLxcCaYu4u6r+z5CPIY4hTqMharfx9fu/MIKQG9ByGLHMSF+//1lOmTBUNieZZujmUkOKJqxA88JCzsiZktpQkEtFVAPQFiVsI0XoIhbOPSeb5L2qUCXOnWR8qzepxowYIXRT34aVFMGZ8H3ltIgqqcfbVqPe0FxljVjCFLOc6w9pOIUmI2HIp4YlSEHqmwUyrJzvsD9sNfsZRBkxjFwSiTBUHyhpKUVJ6bFklIRajgJcaPycmIrXoRXYKivVnEtjpn5mOW+6Iv2tf6UoIFA7jiLVEAX64X4cz6EZTt7j7ubLN8pc/3uketV8R5yNe50iH8Y5LhTCIlsQJF+mJs1SaarHxIuOamePhGuyIfAK75rgDv02rzqtS+grI1PknW4UhdHa5JNxEtgAOmnIKGbm8RQj91R13W62VwkhSXjph7r06RWGHUIJL/dwbWbSg/DywbKw92VFe2xIXe3McleP1C2ZgvzrvQiU//fxXgVbM4qgsRJPfaVf25M76wiuuiWtUUuRguIGCLPr5/ADL2L8scgE+ktRzlLKmepQH4sLl/qQ4zN7s6EIADDz2s2CmcnR5epvKCHte75X8lpoJee7qAR8OZ+rFq5XLlJEaTki19Bg5jRAUpz+AMqGekIpo00FLOTSVF48WzLvYsbLGrY9xcQlU6vqTEmjuulaO9VdQjaq9Tr8j51Gw7K2xKOnVg6ZwyNXJScxkw3L/rZp/w9L3hS4FB0AAA==</t>
+          <t>DR8AAB+LCAAAAAAAAAOlWd1v48YR/1cIPbVAZZKSfLaMNQNZki9CJcuw5Pqcl2JFruytKVLlLm3rLQUSpEhTFEVxKdJP9ClFgV4PbQKkd/34X4Kz7/rUf6GzH/yS5JzpHgwcd2Z+s7OzszOzK/TO9cw3LknEaBjsVuwNq2KQwA09GpztVmI+rdqPKu84qHvtEv8QR3hGOAgbgArYzjWju5Vzzuc7pnl1dbVxVd8IozOzZlm2+WTQH7nnZIarNGAcBy6ppCjv7aiKg9rebEA49jDHCrlb6Y16G21C3Q7QBjjAZyTa2IsZDQhj3YBTTgkTyIhgTtqdwffUwpzaxqMNG5kr9ExyL6a+p+QKkoqu5WBaMqYz4tSsmlW1tqu1xthq7jS2duzmhm033kuAqSDqY8ZHJLqkriSMOJ7NJdzarjWsZmPLbiJzrRDoyhzgoKHvHZFLyojXJr7PSnnE1BvYcjmsupwzLWTmsFrRw014HOH5+Zhyn5SF74cRccFRD5r7gFwNI+2/8bwP3PE5jfiigxeldR0zEg3nwhvloA7qhAFv+STix3PYVOLBngPD4VFMkHkHMwN1KHPhmwYx8Zwp9lkeVGCikzC6YHPskgM4sKbQcRX4IfYgsjhlnLrZpCsMdBiFc9AIk++FvrcPWrXwGkaquReAi8W0e2F4kVm3jolkDMhogD2dYZ6Ir9DR6Dy8Ggb+YhRPmBvRCfE6e4n0Wh4SJ0+j2zHj4QysyEhI0XKUwaC6gH9w2JY5qENcOsP+oQ9+ZE4dFBUIqBXzcEp5O/TjWcASs5ao6AQWNSbX6SLTMRrC/gbC72HQCxJ55em1rCLgKLxK51xlSD/kyC3mJju+ylgW7gAt2cFVjtwUscp96kMtyG9HjloMjNE5IXxtVCgOEmlvX1QXp+X7yMyGCCITohvMcCwoEFX5N7asHfkH06Zs1A28u+USJjqIZ8MJnOBLuSDHBt4SCcES/D0fBxdAPaH8/KCVmL6Gg9SC75Rf5SE4q3MfLyQ5dUqehnqB68ceUSmgF0xlRArb1B7eyUYrpD6cagfhYDFezCHlMrrD4WO3AkV4h/EIynzFccM44NFC5ApkatG3YVg8CeQE2L83ZhqRH8bQXSz248Bth979Z/OUd44Dyu9vYRhHKgHeHyK9J3JhzDpEZBWZ5u+Nd8usiUWlxGcBmYUBde/vbXCysN57wEJYcqrujSDqfN1b3odKrgqdOOv3hkXQGkJpKzVNi7HQpTJY9fHwcnjzjiPTIVMc+9CWcSiqZ2mqXSajFrtYlsmT0HHkJwnPEU0vg67X9WYbLrQLorPbcMOZIJjQbJ6MkJmXFz2PS7rBWR8HZzF0FWleWaan6VZUxHGEAyaWkzYRS5l3vRBK8pRqbpzVZIfMJRE0JrN5GGF/AD6h+zridHMEfccA83M9girmEzfxr5lBU1TRqMTmt4nJcqRWIM66zpBLRCkk4lO11plMRkNiiQM4kX4b+3QSqYSaFO11PNirrBNMUq9YXMmuMHE/XK+gzn6XLETPnQ00XUarnTBU7Ioc6oyOGtu1Tategx5GjJFc8RHBvtGFc8yJ0QsuCeMzgO0YR4RRD74o9neMd8mEUKh/0kW6ApVG53FoP0nx0pQW2FukFAWgszijUEFWBVNOBnBOCY78RU5QLbUfuiB3++N/3/zm+asXn99+/PTNlx/89x+/evXPn908+xA+bv/6t5tPfqmWqYTRGE98Ig0a721vW/UGxFlKQsK5puyDvdjlknZ6KtvfdIz0dU0O2t1e+3F/T6aSlJjAVTUxxU1wEcbZcKQWISeSW2omkaBEnHGSmvS4wM1VJ0fczC5JUTrPvwuofPH65eevX/75TrR2WNZm2c3mZtWuvbULq1m2vSKXdmH9QvoXwo2qtVmt1XLCSzLoSOX+1E89z6nbVtOq1S07TeNeGsjrhJZZWtMYn5lLOEVqq84oDYH8OGHKwB/DEUnZ6ijkBjpEv/zJm788LUhp72pKUQsYJzsYMZmZDKTqg6OxMRoeH7W7xrg7EnGS8XJySvk3COvZ0/NUCKogiLH/HQPqOtQxowJ3n4oRTg2C3XNjAScxdw4LwbaOqiZ6oMplKx9HYTxXO5IDZNQ1kmk2WYtYk2skT/pzJelkrDXiytabv3+xDqAX0sl6WedosGfMgjQuJQ0VOIqU4+tT+9m/Xn310asXL26f//zmqx8VNOh50jcAiHM4TflhGvaQ8nS9WaKgk5F05oX1/Vx90URxhzoMacCZYz+S1yc9QgC1hTb5P+rNoORJxdJfQF+ioHcx615zfbCdA2QWCWDnHEO1DbNbZkpQOTzz639++7vbX39x++nzNx/96ebjP9588unrl79/8+wP6tTdPn1++9NnOssvFwJpi7i7qv7PkI8hriFOoyFqt/H1+78wgpAb0HIYscxIX7//WU6ZMFQ2J5lm6OZSQ4omrIjmwQJn5ExJbSjgUohqANqihNVTCV3Ewjl1s0neqwpV4txJxrd642rMiBFCN/VtWElROAPfF6chqqQeblk1u6a5yhqxhAlmOdc/9sMJNBkJQz41LIkUUN8MyGTlfI/7w71WPxNRRgwjj0QiDNUH6rGkqUzCK0cBLjR7buyLF6EVsVUWSr5yqcvUTyvTlidS3vqXiYIEasdRpJqgQL/Kj+I5NMDJG9zdfPkumet5D1R/mu+Cs3GvU+TDOMeF4ldkC4Lky3SkWSo19Zh4xVEt7IFwTTYEXuEtE9yhH95Vd3UJvWRkilzTjaIwWptwMk4iNoDuGbKImXk8lTHFlKrT9rK9SghJkks/1EVPrzDsEJ/w0q/SCXoQXj4YC3tfFtpjQ9/Tzix33UjdkinIP82LQClrTCuKoG0SD3ml39L7NLjolVu9Q7Y33W1ve6vZtKaNLavZtO2tad1z65u4Tlzxc4pUKm6fQoW4uYi7W7lJoFkswrMr9hFcuktqUw6WQHEXBU/JA6kTezpG+zRi/IlIUfpLUU5TyqlqnZ8I+9SHHJ86jZoigICZn8wsWJ3kF65+xQn9Pp3RkvdVK0lCRSUQBvO56i3LbijUvANyDZ1vTgNk68kPoJ6pt50y2tSpgiSf4hNdo3hSWp2ZgA+BLwLrYeiuB33Zw9HyNxHq/x8GyM7roSp6AaNn57zsvtaazTp5RGrV2tR1qw0YVKEaT6oenjZty4Izu1kTj9laOVQHSq5KTiJqCmVwryiPM5d+1Hb+B1x5VJoNHwAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM-yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM-yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -815,4 +815,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>43</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59980417-1262-4722-BA15-81A672EC870A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_49.xlsx
+++ b/Testdata/TC_49.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>DR8AAB+LCAAAAAAAAAOlWd1v48YR/1cIPbVAZZKSfLaMNQNZki9CJcuw5Pqcl2JFruytKVLlLm3rLQUSpEhTFEVxKdJP9ClFgV4PbQKkd/34X4Kz7/rUf6GzH/yS5JzpHgwcd2Z+s7OzszOzK/TO9cw3LknEaBjsVuwNq2KQwA09GpztVmI+rdqPKu84qHvtEv8QR3hGOAgbgArYzjWju5Vzzuc7pnl1dbVxVd8IozOzZlm2+WTQH7nnZIarNGAcBy6ppCjv7aiKg9rebEA49jDHCrlb6Y16G21C3Q7QBjjAZyTa2IsZDQhj3YBTTgkTyIhgTtqdwffUwpzaxqMNG5kr9ExyL6a+p+QKkoqu5WBaMqYz4tSsmlW1tqu1xthq7jS2duzmhm033kuAqSDqY8ZHJLqkriSMOJ7NJdzarjWsZmPLbiJzrRDoyhzgoKHvHZFLyojXJr7PSnnE1BvYcjmsupwzLWTmsFrRw014HOH5+Zhyn5SF74cRccFRD5r7gFwNI+2/8bwP3PE5jfiigxeldR0zEg3nwhvloA7qhAFv+STix3PYVOLBngPD4VFMkHkHMwN1KHPhmwYx8Zwp9lkeVGCikzC6YHPskgM4sKbQcRX4IfYgsjhlnLrZpCsMdBiFc9AIk++FvrcPWrXwGkaquReAi8W0e2F4kVm3jolkDMhogD2dYZ6Ir9DR6Dy8Ggb+YhRPmBvRCfE6e4n0Wh4SJ0+j2zHj4QysyEhI0XKUwaC6gH9w2JY5qENcOsP+oQ9+ZE4dFBUIqBXzcEp5O/TjWcASs5ao6AQWNSbX6SLTMRrC/gbC72HQCxJ55em1rCLgKLxK51xlSD/kyC3mJju+ylgW7gAt2cFVjtwUscp96kMtyG9HjloMjNE5IXxtVCgOEmlvX1QXp+X7yMyGCCITohvMcCwoEFX5N7asHfkH06Zs1A28u+USJjqIZ8MJnOBLuSDHBt4SCcES/D0fBxdAPaH8/KCVmL6Gg9SC75Rf5SE4q3MfLyQ5dUqehnqB68ceUSmgF0xlRArb1B7eyUYrpD6cagfhYDFezCHlMrrD4WO3AkV4h/EIynzFccM44NFC5ApkatG3YVg8CeQE2L83ZhqRH8bQXSz248Bth979Z/OUd44Dyu9vYRhHKgHeHyK9J3JhzDpEZBWZ5u+Nd8usiUWlxGcBmYUBde/vbXCysN57wEJYcqrujSDqfN1b3odKrgqdOOv3hkXQGkJpKzVNi7HQpTJY9fHwcnjzjiPTIVMc+9CWcSiqZ2mqXSajFrtYlsmT0HHkJwnPEU0vg67X9WYbLrQLorPbcMOZIJjQbJ6MkJmXFz2PS7rBWR8HZzF0FWleWaan6VZUxHGEAyaWkzYRS5l3vRBK8pRqbpzVZIfMJRE0JrN5GGF/AD6h+zridHMEfccA83M9girmEzfxr5lBU1TRqMTmt4nJcqRWIM66zpBLRCkk4lO11plMRkNiiQM4kX4b+3QSqYSaFO11PNirrBNMUq9YXMmuMHE/XK+gzn6XLETPnQ00XUarnTBU7Ioc6oyOGtu1Tategx5GjJFc8RHBvtGFc8yJ0QsuCeMzgO0YR4RRD74o9neMd8mEUKh/0kW6ApVG53FoP0nx0pQW2FukFAWgszijUEFWBVNOBnBOCY78RU5QLbUfuiB3++N/3/zm+asXn99+/PTNlx/89x+/evXPn908+xA+bv/6t5tPfqmWqYTRGE98Ig0a721vW/UGxFlKQsK5puyDvdjlknZ6KtvfdIz0dU0O2t1e+3F/T6aSlJjAVTUxxU1wEcbZcKQWISeSW2omkaBEnHGSmvS4wM1VJ0fczC5JUTrPvwuofPH65eevX/75TrR2WNZm2c3mZtWuvbULq1m2vSKXdmH9QvoXwo2qtVmt1XLCSzLoSOX+1E89z6nbVtOq1S07TeNeGsjrhJZZWtMYn5lLOEVqq84oDYH8OGHKwB/DEUnZ6ijkBjpEv/zJm788LUhp72pKUQsYJzsYMZmZDKTqg6OxMRoeH7W7xrg7EnGS8XJySvk3COvZ0/NUCKogiLH/HQPqOtQxowJ3n4oRTg2C3XNjAScxdw4LwbaOqiZ6oMplKx9HYTxXO5IDZNQ1kmk2WYtYk2skT/pzJelkrDXiytabv3+xDqAX0sl6WedosGfMgjQuJQ0VOIqU4+tT+9m/Xn310asXL26f//zmqx8VNOh50jcAiHM4TflhGvaQ8nS9WaKgk5F05oX1/Vx90URxhzoMacCZYz+S1yc9QgC1hTb5P+rNoORJxdJfQF+ioHcx615zfbCdA2QWCWDnHEO1DbNbZkpQOTzz639++7vbX39x++nzNx/96ebjP9588unrl79/8+wP6tTdPn1++9NnOssvFwJpi7i7qv7PkI8hriFOoyFqt/H1+78wgpAb0HIYscxIX7//WU6ZMFQ2J5lm6OZSQ4omrIjmwQJn5ExJbSjgUohqANqihNVTCV3Ewjl1s0neqwpV4txJxrd642rMiBFCN/VtWElROAPfF6chqqQeblk1u6a5yhqxhAlmOdc/9sMJNBkJQz41LIkUUN8MyGTlfI/7w71WPxNRRgwjj0QiDNUH6rGkqUzCK0cBLjR7buyLF6EVsVUWSr5yqcvUTyvTlidS3vqXiYIEasdRpJqgQL/Kj+I5NMDJG9zdfPkumet5D1R/mu+Cs3GvU+TDOMeF4ldkC4Lky3SkWSo19Zh4xVEt7IFwTTYEXuEtE9yhH95Vd3UJvWRkilzTjaIwWptwMk4iNoDuGbKImXk8lTHFlKrT9rK9SghJkks/1EVPrzDsEJ/w0q/SCXoQXj4YC3tfFtpjQ9/Tzix33UjdkinIP82LQClrTCuKoG0SD3ml39L7NLjolVu9Q7Y33W1ve6vZtKaNLavZtO2tad1z65u4Tlzxc4pUKm6fQoW4uYi7W7lJoFkswrMr9hFcuktqUw6WQHEXBU/JA6kTezpG+zRi/IlIUfpLUU5TyqlqnZ8I+9SHHJ86jZoigICZn8wsWJ3kF65+xQn9Pp3RkvdVK0lCRSUQBvO56i3LbijUvANyDZ1vTgNk68kPoJ6pt50y2tSpgiSf4hNdo3hSWp2ZgA+BLwLrYeiuB33Zw9HyNxHq/x8GyM7roSp6AaNn57zsvtaazTp5RGrV2tR1qw0YVKEaT6oenjZty4Izu1kTj9laOVQHSq5KTiJqCmVwryiPM5d+1Hb+B1x5VJoNHwAA</t>
+          <t>FB0AAB+LCAAAAAAAAAOlWVlvI8cR/isDPiVAyBlS0upAawxekomQokBS0covQXOmJU62Z4aZ7pHENwew4cBxEATBOnBO5MlBgGwWiQ04uzn+i7HSbp7yF1J9zEVSXo2yEFbTVV9VV1dXV1W30DvXPjUuScS8MNiv1GtWxSCBE7pecLFfifl5tf6o8o6NutcOocc4wj7hADZAKmB718zbr8w4n++Z5tXVVe1qoxZGF2bDsurm40F/7MyIj6tewDgOHFJJpdy3S1Vs1Hb9AeHYxRwryf1Kb9yrtYnndIA2wAG+IFGtFTMvIIx1A+5xjzAhGRHMSbsz+J5amN2oParVkblCz5Ct2KOuwhWQiq5xMC2ZeD6xG1Z9p2rtVDfqE2t3b3N7r7FZ29q23ksEUyDqY8bHJLr0HEkYc+zPpbi1s1G3dje3G5vIXAsCXZkDbDSk7ohceoy4bUIpK+URU29g0+Gw6nLOtJCZk9WKHm7CYYTns4nHKSlnxmjQMvxA25IpsdFBGBEH/Pcgk47I1TDSbp3M+8CdzLyILzp4UVrXCSPRcC6cVE7URp0w4E1KIn4yh70mLoQCMGwexQSZdzAzoY7HHPj2gpi49jmmLC9UYKLTMHrC5tghR3COTaHjKqAhdiHguMe452STrjDQcRTOQSNM3gqpewBaNXgNI9XcC8DFYtpWGD7JrFvHRHJX5f7CnvqYJ/AVOhrPwqthQBfjeMqcyJsSt9NK0Gt5SBxILd2OGQ99sCIjIUXLUQaD6gL+wRlc5qAOcTwf02MKfmT2BigqEFAz5uG5x9shjf2AJWYtUdEpLGpCrtNFpmM0hP0NhN/DoBckeOXptayiwCi8SudcZUg/5MhN5iQ7vspYBneAluzgKkduiljlgUehROS3I0ctBsZ4RghfGxWKg0Q2PBBFx25SisxsiCAyIbrBDNuCulGVPxPL2pM/MG3KRt3AvRuXMNFR7A+ncIIv5YLsOvCWSAiWQFsUB0+Aeurx2VEzMX0NB6kF34lf5SE4q3OKF5KcOiVPQ73AobFLVAroBecyIoVtag/vZKMVUh9OtY1wsJgs5pCJmbfH4WO/ArV5j/EIqn/FdsI44NFC5ApkaujbZFg8DeQEmN5b5jwiP4yh6VgcxIHTDt37z+Yq75wEHr+/hWEcqQR4fxHpPZELY9YhIqvINH9veafMmlhUCu4HxA8Dz7m/t8HJwnr3AQthyam6twRR5+veeAqVXBU6cdbvLRZBxwilrdQ0TcZCx5PBqo+Hm5M37zgyHXKOYwrdGoeiepGm2mUyarIny5g8CZ1ENEl4tuiFGTTDjuvXHGgXRMNXc0JfEEzoQU/HyMzjRc/jkG5w0cfBRQxdRZpXlulpuhUVcRLhgInlpE3EUuZdD0JJnlLNjb2a7JC5BEET4s/DCNMB+MQ70BGnmyPoOwaYz/QIqhglTuJfMxNNpYpGJTa/DSbLkVqBOOs6Qy4RJUjEp+q4M0xGQ2KJAziRtI2pN41UQk2K9joe7FXWCSapVyyuZFeYuB9uXVBnv0sWohXPBpouo7WeMFTsihxqj0ebO40ta6MBPYwYI7niEcHU6MI55sToBZeEcR/E9owRYZ4LXx6me8a7ZEo8qH/SRboClZbOy6GDJMVLU5pgb5FSBEBnceFBBVkFppxMwD4jOKKLHFAttR86gLv98b9vfvP81YvPbz9++ubLD/77j1+9+ufPbp59CB+3f/3bzSe/VMtUYDTBU0qkQZPWzo61AVezjISEc03ZB7uxwyXt7Ey2v+kY6VucHLS7vfZhvyVTSUpMxFU1McUFcRHG2XCsFiEnkltqJpGgIPYkSU16XODmqpMtLmyXpIjO8+8SVL54/fLz1y//fKe0dljWZtV3d7eq9cZbuzC4+tZXcGkX1i+kfwHerFpb1UYjB17CoJHK/amfeq4tbtZWY8Oqp2ncTQN5HWiZpTVN8IW5JKdIbdUZpSGQHydMGfgTOCIpWx2F3ECH6Jc/efOXpwWU9q6mFLWAcbKDEZOZyUCqPhpNjPHwZNTuGpPuWMRJxsvhlPJvAOvZ0/NUCKogiDH9jgF1HeqYUYG7T8UIzw2CnZmxgJOYO4eFYFtHVRM9UOWylYdRGM/VjuQEMuoaZJpN1kqsyTWSJ/25knQy1hq4svXm71+sE9AL6WS9bPrYkaehAkeRcnx9aj/716uvPnr14sXt85/ffPWjggY9T/oGAHEOpyk/TMMeUp6uN0sUdDqWznxifT9XXzRR3KGOQy/gzK4/ktcnPUIgWhfa5G/U86HkScXSX0BfoqB3Metec32w7SNkFglg5xxDtQ2zW2ZKUDk88+t/fvu7219/cfvp8zcf/enm4z/efPLp65e/f/PsD+rU3T59fvvTZzrLLxcCaYu4u6r+z5CPIY4hTqMharfx9fu/MIKQG9ByGLHMSF+//1lOmTBUNieZZujmUkOKJqxA88JCzsiZktpQkEtFVAPQFiVsI0XoIhbOPSeb5L2qUCXOnWR8qzepxowYIXRT34aVFMGZ8H3ltIgqqcfbVqPe0FxljVjCFLOc6w9pOIUmI2HIp4YlSEHqmwUyrJzvsD9sNfsZRBkxjFwSiTBUHyhpKUVJ6bFklIRajgJcaPycmIrXoRXYKivVnEtjpn5mOW+6Iv2tf6UoIFA7jiLVEAX64X4cz6EZTt7j7ubLN8pc/3uketV8R5yNe50iH8Y5LhTCIlsQJF+mJs1SaarHxIuOamePhGuyIfAK75rgDv02rzqtS+grI1PknW4UhdHa5JNxEtgAOmnIKGbm8RQj91R13W62VwkhSXjph7r06RWGHUIJL/dwbWbSg/DywbKw92VFe2xIXe3McleP1C2ZgvzrvQiU//fxXgVbM4qgsRJPfaVf25M76wiuuiWtUUuRguIGCLPr5/ADL2L8scgE+ktRzlLKmepQH4sLl/qQ4zN7s6EIADDz2s2CmcnR5epvKCHte75X8lpoJee7qAR8OZ+rFq5XLlJEaTki19Bg5jRAUpz+AMqGekIpo00FLOTSVF48WzLvYsbLGrY9xcQlU6vqTEmjuulaO9VdQjaq9Tr8j51Gw7K2xKOnVg6ZwyNXJScxkw3L/rZp/w9L3hS4FB0AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM-yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM-yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -815,37 +815,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>43</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59980417-1262-4722-BA15-81A672EC870A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>